--- a/Data.xlsx
+++ b/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Col A</t>
   </si>
@@ -28,6 +28,24 @@
   </si>
   <si>
     <t>Col C</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>Extra Col</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -356,15 +374,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,29 +398,65 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>87635</v>
       </c>
       <c r="C2">
         <v>12334</v>
       </c>
+      <c r="D2">
+        <v>15.122999999999999</v>
+      </c>
+      <c r="E2">
+        <v>158.67500000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8763542</v>
       </c>
       <c r="B3">
         <v>3434</v>
       </c>
+      <c r="D3">
+        <v>12.111000000000001</v>
+      </c>
+      <c r="E3">
+        <v>212.8835</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1234</v>
       </c>
       <c r="C4">
         <v>3242</v>
+      </c>
+      <c r="D4">
+        <v>123.54</v>
+      </c>
+      <c r="E4">
+        <v>267.09199999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
